--- a/excel/测试.xlsx
+++ b/excel/测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/github/somenzz/code-example/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41588D3F-B767-324D-9E32-A4703A90EB7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B71C80C-18E7-0A4A-B4CA-93F535D41F8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{BEAA3637-0596-7545-AB6A-5FE36D84FEDB}"/>
   </bookViews>
@@ -68,11 +68,9 @@
   </si>
   <si>
     <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -442,7 +440,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
